--- a/template/config/soabm-skims.xlsx
+++ b/template/config/soabm-skims.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\odot-abm\SOABM\scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\development\soabm\template\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="6470" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14160" windowHeight="5740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Auto" sheetId="3" r:id="rId1"/>
@@ -394,9 +394,6 @@
     <t>tap_skims_EV_&lt;SET&gt;.ver</t>
   </si>
   <si>
-    <t>4mph</t>
-  </si>
-  <si>
     <t>10mph</t>
   </si>
   <si>
@@ -518,12 +515,15 @@
   </si>
   <si>
     <t>*Set3 same as Set2 for now</t>
+  </si>
+  <si>
+    <t>3mph</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -663,7 +663,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -941,7 +941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F35"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
@@ -970,7 +970,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.35">
@@ -984,7 +984,7 @@
         <v>67</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.35">
@@ -995,10 +995,10 @@
         <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.35">
@@ -1012,7 +1012,7 @@
         <v>90</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.35">
@@ -1023,10 +1023,10 @@
         <v>52</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.35">
@@ -1040,7 +1040,7 @@
         <v>91</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.35">
@@ -1051,10 +1051,10 @@
         <v>53</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.35">
@@ -1068,7 +1068,7 @@
         <v>67</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.35">
@@ -1079,10 +1079,10 @@
         <v>50</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.35">
@@ -1243,7 +1243,7 @@
         <v>76</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>45</v>
@@ -1260,7 +1260,7 @@
         <v>4</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>96</v>
@@ -1277,7 +1277,7 @@
         <v>1.5</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>97</v>
@@ -1294,7 +1294,7 @@
         <v>8</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>98</v>
@@ -1311,7 +1311,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>99</v>
@@ -1328,7 +1328,7 @@
         <v>8.5</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>100</v>
@@ -1374,10 +1374,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -1407,10 +1407,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
@@ -1438,28 +1438,28 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -1476,7 +1476,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
@@ -1558,10 +1558,10 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D19" s="1">
         <v>8</v>
@@ -1569,10 +1569,10 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D20" s="1">
         <v>9</v>
@@ -1580,10 +1580,10 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D21" s="1">
         <v>10</v>
@@ -1629,18 +1629,18 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B27" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>27</v>
@@ -1768,11 +1768,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1801,7 +1801,7 @@
         <v>80</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>46</v>
@@ -1824,19 +1824,19 @@
         <v>60</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>81</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.35">
@@ -1850,19 +1850,19 @@
         <v>60</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>82</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
